--- a/Subneteo.xlsx
+++ b/Subneteo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50494\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Fernanda\Documents\GitHub\Proyecto_Redes_II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA3E616-C9B0-4C4D-8943-6F0F5C05A563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,6 @@
     <sheet name="WAN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">Edificio 1(Nivel 2)= 18 IPs = /27 </t>
   </si>
   <si>
-    <t>192.168.30.32-192.168.30.64</t>
-  </si>
-  <si>
     <t>Dirección de Red: 192.168.40.0</t>
   </si>
   <si>
@@ -549,12 +546,15 @@
   </si>
   <si>
     <t>189.168.0.20</t>
+  </si>
+  <si>
+    <t>192.168.30.32-192.168.30.63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,84 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1000,6 +922,84 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1293,11 +1293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,27 +1309,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="35"/>
+      <c r="C4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
@@ -1395,15 +1395,15 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="37"/>
+      <c r="C10" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="43"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="33"/>
+      <c r="F10" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
@@ -1454,15 +1454,15 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="31"/>
+      <c r="C15" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="37"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="41"/>
+      <c r="F15" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="22" t="s">
@@ -1471,7 +1471,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="18"/>
       <c r="F16" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -1484,10 +1484,10 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -1495,14 +1495,14 @@
         <v>30</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -1513,40 +1513,40 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="18"/>
       <c r="F21" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L71"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
@@ -1610,19 +1610,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
@@ -1639,37 +1639,37 @@
     </row>
     <row r="3" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -1677,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="G4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="16">
         <v>65</v>
@@ -1712,22 +1712,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="I5" s="16">
         <v>44</v>
@@ -1747,22 +1747,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="G6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="I6" s="16">
         <v>30</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -1806,19 +1806,19 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="B9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -1835,37 +1835,37 @@
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="I12" s="2">
         <v>30</v>
@@ -1908,22 +1908,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13" s="2">
         <v>14</v>
@@ -1943,22 +1943,22 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="2">
         <v>8</v>
@@ -2000,19 +2000,19 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
+      <c r="B17" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
@@ -2029,37 +2029,37 @@
     </row>
     <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -2067,22 +2067,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="G20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="I20" s="9">
         <v>65</v>
@@ -2102,22 +2102,22 @@
         <v>2</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="G21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I21" s="9">
         <v>44</v>
@@ -2157,19 +2157,19 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="B24" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -2186,37 +2186,37 @@
     </row>
     <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -2224,22 +2224,22 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2">
         <v>19</v>
@@ -2259,22 +2259,22 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I28" s="2">
         <v>12</v>
@@ -2316,19 +2316,19 @@
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="B31" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -2345,37 +2345,37 @@
     </row>
     <row r="33" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -2383,22 +2383,22 @@
         <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="G34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I34" s="10">
         <v>19</v>
@@ -2418,22 +2418,22 @@
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="G35" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" s="10">
         <v>12</v>
@@ -2475,19 +2475,19 @@
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
+      <c r="B38" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
@@ -2504,37 +2504,37 @@
     </row>
     <row r="40" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="J40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="L40" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2542,22 +2542,22 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="G41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I41" s="11">
         <v>19</v>
@@ -2577,22 +2577,22 @@
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="G42" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="11">
         <v>12</v>
@@ -2634,19 +2634,19 @@
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
+      <c r="B45" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
@@ -2663,37 +2663,37 @@
     </row>
     <row r="47" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2701,22 +2701,22 @@
         <v>1</v>
       </c>
       <c r="C48" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
@@ -2758,19 +2758,19 @@
       <c r="L50" s="14"/>
     </row>
     <row r="51" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B51" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
+      <c r="B51" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
@@ -2787,37 +2787,37 @@
     </row>
     <row r="53" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="I53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="J53" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="K53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="L53" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2825,22 +2825,22 @@
         <v>1</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="G54" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="I54" s="13">
         <v>65</v>
@@ -2860,22 +2860,22 @@
         <v>2</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="G55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="I55" s="13">
         <v>44</v>
@@ -2895,22 +2895,22 @@
         <v>3</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="G56" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="I56" s="13">
         <v>30</v>
@@ -3137,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,142 +3155,142 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="E9" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E12" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="54" t="s">
+      <c r="D13" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="54">
+      <c r="E13" s="28">
         <v>16</v>
       </c>
     </row>
